--- a/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6166B0C3-1A9B-445A-AE52-83C4B544A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA0304A-8F7E-407C-930D-ACA1B5589064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E079E287-A7A9-4B33-930D-C8F935FA7083}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E8D051DF-80E9-4069-82B9-33D64740D160}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,18 +65,225 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
     <t>13,78%</t>
   </si>
   <si>
@@ -89,444 +296,486 @@
     <t>38,05%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>12,61%</t>
   </si>
   <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
     <t>3,86%</t>
   </si>
   <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
     <t>5,37%</t>
   </si>
   <si>
@@ -537,255 +786,6 @@
   </si>
   <si>
     <t>11,61%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4716D7-C10A-4350-99E7-BD9273AE669B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097C1B9-CE06-4E81-85A4-D181FB49AE51}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1292,817 +1292,721 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7">
-        <v>476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,72 +2015,66 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B21" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2185,49 +2083,49 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2236,34 +2134,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2272,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2287,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2302,34 +2200,34 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2338,85 +2236,85 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2425,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2440,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2455,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2476,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2491,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2506,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2527,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2542,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2557,19 +2455,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2578,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2593,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2608,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2629,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2644,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2659,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2680,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2695,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2710,85 +2608,85 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2797,34 +2695,34 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2833,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2848,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2863,34 +2761,34 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2899,49 +2797,49 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>2838</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2950,28 +2848,28 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2884,13 @@
         <v>4816</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3001,13 +2899,13 @@
         <v>159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -3016,21 +2914,21 @@
         <v>4975</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3039,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3054,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3069,19 +2967,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3090,49 +2988,49 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3141,49 +3039,49 @@
         <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="M40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3192,100 +3090,100 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>633</v>
+        <v>1598</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>633</v>
+        <v>1598</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>160</v>
+        <v>843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3294,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3309,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3324,136 +3222,136 @@
         <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>724</v>
+        <v>391</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="M44" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="7">
+        <v>2</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1100</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3462,49 +3360,49 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3513,34 +3411,34 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -3549,64 +3447,64 @@
         <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3615,85 +3513,85 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="H50" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M50" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -3702,100 +3600,100 @@
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="M51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>159</v>
+        <v>570</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="M52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -3804,43 +3702,43 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7">
+        <v>620</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,771 +3747,867 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="7">
-        <v>1572</v>
+        <v>3655</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H54" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54" s="7">
-        <v>4124</v>
+        <v>4497</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M54" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N54" s="7">
-        <v>5696</v>
+        <v>8152</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B55" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>159</v>
+      </c>
       <c r="E55" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" s="7"/>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
       <c r="J55" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="7">
+        <v>159</v>
+      </c>
       <c r="O55" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
       <c r="E56" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
-      <c r="I56" s="7"/>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
       <c r="J56" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
       <c r="O56" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
+        <v>159</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
       <c r="J57" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <v>159</v>
+      </c>
       <c r="O57" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
+        <v>159</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
+        <v>159</v>
+      </c>
       <c r="J58" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N58" s="7">
+        <v>319</v>
+      </c>
       <c r="O58" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
+        <v>591</v>
+      </c>
       <c r="E59" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2604</v>
+      </c>
       <c r="J59" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N59" s="7">
+        <v>3195</v>
+      </c>
       <c r="O59" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1977</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
-      <c r="I60" s="7"/>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
       <c r="J60" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1977</v>
+      </c>
       <c r="O60" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
       <c r="E61" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
-      <c r="I61" s="7"/>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
       <c r="J61" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="7"/>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
       <c r="O61" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
       <c r="E62" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="7"/>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
       <c r="J62" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="7"/>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
       <c r="O62" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
       <c r="E63" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
-      <c r="I63" s="7"/>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
       <c r="J63" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
       <c r="O63" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
       <c r="E64" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
-      <c r="I64" s="7"/>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
       <c r="J64" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
       <c r="O64" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
+        <v>906</v>
+      </c>
       <c r="E65" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
-      <c r="I65" s="7"/>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
       <c r="J65" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <v>906</v>
+      </c>
       <c r="O65" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1701</v>
+      </c>
       <c r="E66" s="7" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="7"/>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
       <c r="J66" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1701</v>
+      </c>
       <c r="O66" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
-      <c r="I67" s="7"/>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
       <c r="J67" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
       </c>
-      <c r="N67" s="7"/>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
       <c r="O67" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
       <c r="E68" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
-      <c r="I68" s="7"/>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
       <c r="J68" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
       </c>
-      <c r="N68" s="7"/>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
       <c r="O68" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
       <c r="E69" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
-      <c r="I69" s="7"/>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
       <c r="J69" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
       <c r="O69" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
       <c r="E70" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
-      <c r="I70" s="7"/>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
       <c r="J70" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
       </c>
-      <c r="N70" s="7"/>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
       <c r="O70" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,51 +4616,57 @@
         <v>3</v>
       </c>
       <c r="C71" s="7">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5653</v>
+      </c>
       <c r="E71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2763</v>
+      </c>
       <c r="J71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="M71" s="7">
-        <v>0</v>
-      </c>
-      <c r="N71" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N71" s="7">
+        <v>8416</v>
+      </c>
       <c r="O71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B72" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -4675,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -4705,70 +4705,70 @@
         <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C73" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="H73" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M73" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73" s="7">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -4777,115 +4777,115 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M74" s="7">
+        <v>1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>605</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="7">
-        <v>0</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="H75" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75" s="7">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M75" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N75" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>1701</v>
+        <v>459</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -4894,85 +4894,85 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>1701</v>
+        <v>459</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C77" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="H77" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="7">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
       </c>
       <c r="N77" s="7">
-        <v>906</v>
+        <v>1171</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C78" s="7">
         <v>0</v>
@@ -4981,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -5011,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C79" s="7">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -5062,19 +5062,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C80" s="7">
         <v>0</v>
@@ -5083,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5098,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5113,19 +5113,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C81" s="7">
         <v>0</v>
@@ -5134,64 +5134,64 @@
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H81" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="7">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M81" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C82" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" s="7">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -5200,166 +5200,166 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M82" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N82" s="7">
-        <v>1977</v>
+        <v>0</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" s="7">
-        <v>591</v>
+        <v>160</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H83" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>2604</v>
+        <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M83" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83" s="7">
-        <v>3195</v>
+        <v>160</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7">
+        <v>633</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M84" s="7">
+        <v>1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>633</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q84" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-      <c r="I84" s="7">
-        <v>159</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M84" s="7">
-        <v>2</v>
-      </c>
-      <c r="N84" s="7">
-        <v>319</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C85" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
         <v>159</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
       <c r="J85" s="7" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5368,19 +5368,19 @@
         <v>159</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C86" s="7">
         <v>0</v>
@@ -5389,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -5404,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -5419,34 +5419,34 @@
         <v>0</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
@@ -5455,28 +5455,28 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M87" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,49 +5485,49 @@
         <v>3</v>
       </c>
       <c r="C88" s="7">
+        <v>5</v>
+      </c>
+      <c r="D88" s="7">
+        <v>1572</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="7">
         <v>9</v>
       </c>
-      <c r="D88" s="7">
-        <v>5653</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H88" s="7">
-        <v>3</v>
-      </c>
       <c r="I88" s="7">
-        <v>2763</v>
+        <v>4124</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M88" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N88" s="7">
-        <v>8416</v>
+        <v>5696</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,49 +5535,49 @@
         <v>3</v>
       </c>
       <c r="B89" s="5">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C89" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H89" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M89" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89" s="7">
-        <v>620</v>
+        <v>318</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>165</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q89" s="7" t="s">
         <v>166</v>
@@ -5586,328 +5586,328 @@
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="5">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C90" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D90" s="7">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H90" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90" s="7">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M90" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N90" s="7">
-        <v>570</v>
+        <v>3792</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="5">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C91" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
       </c>
       <c r="I91" s="7">
-        <v>159</v>
+        <v>605</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M91" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91" s="7">
-        <v>159</v>
+        <v>764</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="5">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C92" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92" s="7">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H92" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I92" s="7">
-        <v>633</v>
+        <v>2429</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M92" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N92" s="7">
-        <v>633</v>
+        <v>4368</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C93" s="7">
         <v>3</v>
       </c>
       <c r="D93" s="7">
-        <v>2447</v>
+        <v>1724</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H93" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I93" s="7">
-        <v>0</v>
+        <v>3606</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M93" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N93" s="7">
-        <v>2447</v>
+        <v>5330</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="5">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C94" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" s="7">
-        <v>906</v>
+        <v>1977</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H94" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="7">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M94" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N94" s="7">
-        <v>906</v>
+        <v>3148</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="5">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" s="7">
-        <v>635</v>
+        <v>159</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
       </c>
       <c r="I95" s="7">
-        <v>725</v>
+        <v>391</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M95" s="7">
         <v>2</v>
       </c>
       <c r="N95" s="7">
-        <v>1360</v>
+        <v>550</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C96" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="7">
-        <v>1175</v>
+        <v>1100</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -5916,49 +5916,49 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M96" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96" s="7">
-        <v>1175</v>
+        <v>1100</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C97" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="7">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -5967,331 +5967,331 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M97" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97" s="7">
-        <v>1100</v>
+        <v>1175</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
       </c>
       <c r="D98" s="7">
-        <v>159</v>
+        <v>635</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
       </c>
       <c r="I98" s="7">
-        <v>391</v>
+        <v>725</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="M98" s="7">
         <v>2</v>
       </c>
       <c r="N98" s="7">
-        <v>550</v>
+        <v>1360</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C99" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" s="7">
-        <v>1977</v>
+        <v>906</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H99" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="7">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="M99" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N99" s="7">
-        <v>3148</v>
+        <v>906</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="5">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C100" s="7">
         <v>3</v>
       </c>
       <c r="D100" s="7">
-        <v>1724</v>
+        <v>2447</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H100" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100" s="7">
-        <v>3606</v>
+        <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="M100" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N100" s="7">
-        <v>5330</v>
+        <v>2447</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="5">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C101" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D101" s="7">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H101" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I101" s="7">
-        <v>2429</v>
+        <v>633</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M101" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N101" s="7">
-        <v>4368</v>
+        <v>633</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="5">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C102" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="7">
+        <v>0</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H102" s="7">
+        <v>1</v>
+      </c>
+      <c r="I102" s="7">
         <v>159</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H102" s="7">
-        <v>1</v>
-      </c>
-      <c r="I102" s="7">
-        <v>605</v>
-      </c>
       <c r="J102" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M102" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N102" s="7">
-        <v>764</v>
+        <v>159</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="5">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C103" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D103" s="7">
-        <v>3157</v>
+        <v>0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H103" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103" s="7">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M103" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N103" s="7">
-        <v>3792</v>
+        <v>570</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="Q103" s="7" t="s">
         <v>245</v>
@@ -6300,49 +6300,49 @@
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C104" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="E104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H104" s="7">
+        <v>1</v>
+      </c>
+      <c r="I104" s="7">
+        <v>620</v>
+      </c>
+      <c r="J104" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="7" t="s">
+      <c r="K104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H104" s="7">
-        <v>0</v>
-      </c>
-      <c r="I104" s="7">
-        <v>0</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="M104" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N104" s="7">
-        <v>318</v>
+        <v>620</v>
       </c>
       <c r="O104" s="7" t="s">
         <v>248</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q104" s="7" t="s">
         <v>249</v>
@@ -6360,13 +6360,13 @@
         <v>15696</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H105" s="7">
         <v>23</v>
@@ -6375,13 +6375,13 @@
         <v>11543</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M105" s="7">
         <v>47</v>
@@ -6390,13 +6390,13 @@
         <v>27239</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA0304A-8F7E-407C-930D-ACA1B5589064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8947C9D8-7B44-4FFF-BE5C-24EA116853B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E8D051DF-80E9-4069-82B9-33D64740D160}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66BF84EB-E275-4018-A9D0-54150AB4A7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="248">
   <si>
     <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
   </si>
@@ -161,139 +161,136 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>35,06%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>67,65%</t>
+    <t>68,27%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>41,21%</t>
+    <t>46,58%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>51,6%</t>
+    <t>46,19%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>32,53%</t>
+    <t>26,25%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>80,54%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>43,31%</t>
+    <t>37,64%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>82,31%</t>
+    <t>85,54%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>59,7%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>67,83%</t>
+    <t>69,97%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>35,16%</t>
+    <t>34,63%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>74,69%</t>
+    <t>66,23%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>37,83%</t>
+    <t>36,49%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>62,9%</t>
+    <t>58,21%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>35,41%</t>
+    <t>36,22%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>58,66%</t>
+    <t>55,0%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>38,05%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -302,7 +299,7 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>18,29%</t>
+    <t>21,7%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -311,7 +308,7 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>19,22%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -320,13 +317,13 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>5,76%</t>
@@ -335,13 +332,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>17,03%</t>
+    <t>17,01%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>59,92%</t>
+    <t>51,19%</t>
   </si>
   <si>
     <t>94,24%</t>
@@ -350,49 +347,43 @@
     <t>37,96%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>78,13%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>64,23%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>66,22%</t>
+    <t>71,7%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>70,31%</t>
+    <t>71,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -410,52 +401,49 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>30,84%</t>
+    <t>26,06%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>25,24%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>59,05%</t>
+    <t>62,83%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>46,28%</t>
+    <t>53,83%</t>
   </si>
   <si>
     <t>40,34%</t>
   </si>
   <si>
-    <t>94,09%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>29,21%</t>
@@ -467,31 +455,31 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>39,12%</t>
+    <t>39,48%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>75,34%</t>
+    <t>82,54%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>64,08%</t>
+    <t>70,36%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>69,47%</t>
+    <t>66,81%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>51,37%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>10,16%</t>
@@ -503,31 +491,31 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>16,46%</t>
+    <t>17,07%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>67,7%</t>
+    <t>62,19%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>9,13%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -536,205 +524,208 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>27,68%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>13,55%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>38,99%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>68,99%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>47,83%</t>
+    <t>45,82%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>19,58%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>8,47%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>24,54%</t>
+    <t>22,42%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>32,69%</t>
+    <t>38,2%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>26,85%</t>
+    <t>18,79%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,18%</t>
+    <t>19,81%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>33,1%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>16,39%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>30,16%</t>
+    <t>29,68%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>16,28%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>47,9%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -743,49 +734,52 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>29,23%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>14,63%</t>
+    <t>16,47%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>13,8%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,66%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>11,36%</t>
+    <t>11,22%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -796,7 +790,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -892,39 +886,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -976,7 +970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1087,13 +1081,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1102,6 +1089,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1166,19 +1160,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097C1B9-CE06-4E81-85A4-D181FB49AE51}">
-  <dimension ref="A1:Q105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ADC409-4120-4101-9EBB-7310BF7F482C}">
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3006,10 +3020,10 @@
         <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3018,13 +3032,13 @@
         <v>476</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3119,13 @@
         <v>1598</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3120,13 +3134,13 @@
         <v>1598</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3170,13 @@
         <v>843</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3171,13 +3185,13 @@
         <v>843</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3257,13 @@
         <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3258,13 +3272,13 @@
         <v>391</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3273,13 +3287,13 @@
         <v>550</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3308,13 @@
         <v>1100</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3324,13 +3338,13 @@
         <v>1100</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3359,13 @@
         <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3375,13 +3389,13 @@
         <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3410,13 @@
         <v>635</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3426,13 +3440,13 @@
         <v>635</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3512,13 @@
         <v>586</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3528,13 +3542,13 @@
         <v>586</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3680,13 @@
         <v>570</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -3681,13 +3695,13 @@
         <v>570</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3731,13 @@
         <v>620</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -3732,13 +3746,13 @@
         <v>620</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3808,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
@@ -3806,28 +3820,28 @@
         <v>159</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3836,13 +3850,13 @@
         <v>159</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,37 +3877,37 @@
         <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3922,13 @@
         <v>159</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -3929,7 +3943,7 @@
         <v>15</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -3938,13 +3952,13 @@
         <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3973,13 @@
         <v>159</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -3974,7 +3988,7 @@
         <v>159</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>13</v>
@@ -3989,13 +4003,13 @@
         <v>319</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4024,13 @@
         <v>591</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -4025,7 +4039,7 @@
         <v>2604</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>13</v>
@@ -4040,13 +4054,13 @@
         <v>3195</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,14 +4075,14 @@
         <v>1977</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>15</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4091,13 +4105,13 @@
         <v>1977</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,37 +4132,37 @@
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,37 +4183,37 @@
         <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,37 +4234,37 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,37 +4285,37 @@
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4330,13 @@
         <v>906</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4337,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4346,13 +4360,13 @@
         <v>906</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4381,13 @@
         <v>1701</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4388,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4397,13 +4411,13 @@
         <v>1701</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,37 +4438,37 @@
         <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,37 +4489,37 @@
         <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M68" s="7">
-        <v>0</v>
-      </c>
-      <c r="N68" s="7">
-        <v>0</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,37 +4540,37 @@
         <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M69" s="7">
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
-        <v>0</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,37 +4591,37 @@
         <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M70" s="7">
-        <v>0</v>
-      </c>
-      <c r="N70" s="7">
-        <v>0</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,7 +4677,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72" s="5">
         <v>2022</v>
@@ -4696,7 +4710,7 @@
         <v>15</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -4711,7 +4725,7 @@
         <v>15</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4740,13 @@
         <v>319</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -4741,13 +4755,13 @@
         <v>159</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4756,13 +4770,13 @@
         <v>478</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4806,13 @@
         <v>605</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -4807,13 +4821,13 @@
         <v>605</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4842,13 @@
         <v>634</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H75" s="7">
         <v>3</v>
@@ -4843,13 +4857,13 @@
         <v>672</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M75" s="7">
         <v>4</v>
@@ -4858,13 +4872,13 @@
         <v>1307</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4893,13 @@
         <v>459</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -4900,7 +4914,7 @@
         <v>15</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -4909,13 +4923,13 @@
         <v>459</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4959,13 @@
         <v>1171</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -4960,13 +4974,13 @@
         <v>1171</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,7 +5016,7 @@
         <v>15</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -5017,7 +5031,7 @@
         <v>15</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5067,7 @@
         <v>15</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -5068,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5118,7 @@
         <v>15</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5119,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5163,13 @@
         <v>724</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -5164,13 +5178,13 @@
         <v>725</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -5221,7 +5235,7 @@
         <v>15</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5250,13 @@
         <v>160</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -5257,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -5266,13 +5280,13 @@
         <v>160</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5316,13 @@
         <v>633</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -5317,13 +5331,13 @@
         <v>633</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5367,13 @@
         <v>159</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5368,13 +5382,13 @@
         <v>159</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5424,7 @@
         <v>15</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -5425,7 +5439,7 @@
         <v>15</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5475,7 @@
         <v>15</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -5476,7 +5490,7 @@
         <v>15</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5558,13 @@
         <v>318</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -5565,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -5574,13 +5588,13 @@
         <v>318</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5609,13 @@
         <v>3157</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H90" s="7">
         <v>4</v>
@@ -5610,13 +5624,13 @@
         <v>635</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M90" s="7">
         <v>7</v>
@@ -5625,13 +5639,13 @@
         <v>3792</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5660,13 @@
         <v>159</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -5661,13 +5675,13 @@
         <v>605</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M91" s="7">
         <v>2</v>
@@ -5676,13 +5690,13 @@
         <v>764</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5711,13 @@
         <v>1938</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H92" s="7">
         <v>7</v>
@@ -5712,13 +5726,13 @@
         <v>2429</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M92" s="7">
         <v>10</v>
@@ -5727,13 +5741,13 @@
         <v>4368</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5762,13 @@
         <v>1724</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H93" s="7">
         <v>4</v>
@@ -5763,13 +5777,13 @@
         <v>3606</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M93" s="7">
         <v>7</v>
@@ -5778,13 +5792,13 @@
         <v>5330</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5813,13 @@
         <v>1977</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -5814,13 +5828,13 @@
         <v>1171</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M94" s="7">
         <v>4</v>
@@ -5829,13 +5843,13 @@
         <v>3148</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5864,13 @@
         <v>159</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -5865,13 +5879,13 @@
         <v>391</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M95" s="7">
         <v>2</v>
@@ -5880,13 +5894,13 @@
         <v>550</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5915,13 @@
         <v>1100</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -5922,7 +5936,7 @@
         <v>15</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M96" s="7">
         <v>2</v>
@@ -5931,13 +5945,13 @@
         <v>1100</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5966,13 @@
         <v>1175</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -5973,7 +5987,7 @@
         <v>15</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M97" s="7">
         <v>1</v>
@@ -5982,13 +5996,13 @@
         <v>1175</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6017,13 @@
         <v>635</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -6018,13 +6032,13 @@
         <v>725</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M98" s="7">
         <v>2</v>
@@ -6033,13 +6047,13 @@
         <v>1360</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6068,13 @@
         <v>906</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
@@ -6075,7 +6089,7 @@
         <v>15</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M99" s="7">
         <v>1</v>
@@ -6084,13 +6098,13 @@
         <v>906</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6119,13 @@
         <v>2447</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -6126,7 +6140,7 @@
         <v>15</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M100" s="7">
         <v>3</v>
@@ -6135,13 +6149,13 @@
         <v>2447</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -6171,13 +6185,13 @@
         <v>633</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6186,13 +6200,13 @@
         <v>633</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6227,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
@@ -6222,13 +6236,13 @@
         <v>159</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M102" s="7">
         <v>1</v>
@@ -6237,13 +6251,13 @@
         <v>159</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6278,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6273,13 +6287,13 @@
         <v>570</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M103" s="7">
         <v>1</v>
@@ -6288,13 +6302,13 @@
         <v>570</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6329,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -6324,13 +6338,13 @@
         <v>620</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M104" s="7">
         <v>1</v>
@@ -6339,13 +6353,13 @@
         <v>620</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,6 +6411,11 @@
       </c>
       <c r="Q105" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8947C9D8-7B44-4FFF-BE5C-24EA116853B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DFDA01-DBB9-4221-B0E2-4C5A975D24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66BF84EB-E275-4018-A9D0-54150AB4A7FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88B71535-58ED-4AEF-A568-039BBDD8BF40}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="249">
   <si>
     <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
   </si>
@@ -65,13 +65,13 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,44%</t>
+    <t>29,41%</t>
   </si>
   <si>
     <t>0%</t>
@@ -104,7 +104,7 @@
     <t>57,05%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -116,19 +116,19 @@
     <t>23,77%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>87,81%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>91,53%</t>
+    <t>90,4%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>92,71%</t>
+    <t>80,91%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -143,10 +143,10 @@
     <t>16,74%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -161,145 +161,148 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>35,06%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>68,27%</t>
+    <t>65,72%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>46,58%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>26,2%</t>
+    <t>36,64%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>46,19%</t>
+    <t>53,32%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>26,25%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>86,9%</t>
+    <t>77,74%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>37,64%</t>
+    <t>39,17%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>85,54%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>59,7%</t>
+    <t>54,87%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>67,96%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>34,63%</t>
+    <t>37,8%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>66,23%</t>
+    <t>68,2%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>36,49%</t>
+    <t>37,5%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>58,21%</t>
+    <t>58,05%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>36,22%</t>
+    <t>36,71%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>55,0%</t>
+    <t>60,16%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>24,36%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -308,7 +311,7 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>12,93%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -317,13 +320,13 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>5,76%</t>
@@ -332,13 +335,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>17,01%</t>
+    <t>16,68%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>51,19%</t>
+    <t>60,52%</t>
   </si>
   <si>
     <t>94,24%</t>
@@ -347,43 +350,49 @@
     <t>37,96%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>78,13%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>64,23%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>71,7%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>71,37%</t>
+    <t>66,16%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -401,49 +410,46 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>26,06%</t>
+    <t>26,29%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>25,24%</t>
+    <t>26,51%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>62,83%</t>
+    <t>65,52%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>53,83%</t>
+    <t>50,81%</t>
   </si>
   <si>
     <t>40,34%</t>
   </si>
   <si>
-    <t>85,65%</t>
+    <t>94,08%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>53,52%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>29,21%</t>
@@ -455,31 +461,31 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>39,48%</t>
+    <t>39,09%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>82,54%</t>
+    <t>76,18%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>70,36%</t>
+    <t>61,43%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>61,77%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>50,65%</t>
+    <t>50,12%</t>
   </si>
   <si>
     <t>10,16%</t>
@@ -491,31 +497,31 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>17,07%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>62,19%</t>
+    <t>66,15%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -524,208 +530,205 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>65,53%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
+    <t>7,16%</t>
+  </si>
+  <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>30,7%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,55%</t>
+    <t>13,23%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>19,58%</t>
+    <t>16,65%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>8,47%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>14,73%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>38,2%</t>
+    <t>37,63%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>23,59%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>19,81%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>16,6%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>29,68%</t>
+    <t>31,52%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>47,9%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -734,49 +737,49 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>29,18%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>16,47%</t>
+    <t>12,11%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>26,24%</t>
+    <t>26,87%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>11,22%</t>
+    <t>11,95%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>29,45%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1191,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ADC409-4120-4101-9EBB-7310BF7F482C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87651145-3E28-474A-A96F-DFA8BC0D219E}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3020,10 +3023,10 @@
         <v>40</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3032,13 +3035,13 @@
         <v>476</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3122,13 @@
         <v>1598</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3134,13 +3137,13 @@
         <v>1598</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3173,13 @@
         <v>843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3185,13 +3188,13 @@
         <v>843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3260,13 @@
         <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3272,13 +3275,13 @@
         <v>391</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3287,13 +3290,13 @@
         <v>550</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3311,13 @@
         <v>1100</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3338,13 +3341,13 @@
         <v>1100</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3362,13 @@
         <v>1175</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3389,13 +3392,13 @@
         <v>1175</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3413,13 @@
         <v>635</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3440,13 +3443,13 @@
         <v>635</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3515,13 @@
         <v>586</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3542,13 +3545,13 @@
         <v>586</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3683,13 @@
         <v>570</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -3695,13 +3698,13 @@
         <v>570</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3734,13 @@
         <v>620</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -3746,13 +3749,13 @@
         <v>620</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3811,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
@@ -3820,13 +3823,13 @@
         <v>159</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3841,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3850,13 +3853,13 @@
         <v>159</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3880,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -3892,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -3907,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3925,13 @@
         <v>159</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -3943,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -3952,13 +3955,13 @@
         <v>159</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3976,13 @@
         <v>159</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -3988,7 +3991,7 @@
         <v>159</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>13</v>
@@ -4003,13 +4006,13 @@
         <v>319</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4027,13 @@
         <v>591</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -4039,7 +4042,7 @@
         <v>2604</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>13</v>
@@ -4054,13 +4057,13 @@
         <v>3195</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4078,13 @@
         <v>1977</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4096,7 +4099,7 @@
         <v>15</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4105,13 +4108,13 @@
         <v>1977</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4135,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4147,7 +4150,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4162,7 +4165,7 @@
         <v>15</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4198,7 +4201,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4213,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4237,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4249,7 +4252,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4288,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4300,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4315,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4333,13 @@
         <v>906</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4351,7 +4354,7 @@
         <v>15</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4360,13 +4363,13 @@
         <v>906</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4384,13 @@
         <v>1701</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4402,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4411,13 +4414,13 @@
         <v>1701</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4441,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4453,7 +4456,7 @@
         <v>15</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4468,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4492,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4504,7 +4507,7 @@
         <v>15</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -4519,7 +4522,7 @@
         <v>15</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4555,7 +4558,7 @@
         <v>15</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4570,7 +4573,7 @@
         <v>15</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4594,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4606,7 +4609,7 @@
         <v>15</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -4621,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,7 +4680,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B72" s="5">
         <v>2022</v>
@@ -4710,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -4725,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4743,13 @@
         <v>319</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -4755,13 +4758,13 @@
         <v>159</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4770,13 +4773,13 @@
         <v>478</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4809,13 @@
         <v>605</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -4821,13 +4824,13 @@
         <v>605</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4845,13 @@
         <v>634</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H75" s="7">
         <v>3</v>
@@ -4857,13 +4860,13 @@
         <v>672</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M75" s="7">
         <v>4</v>
@@ -4872,13 +4875,13 @@
         <v>1307</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4896,13 @@
         <v>459</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -4914,7 +4917,7 @@
         <v>15</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -4923,13 +4926,13 @@
         <v>459</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4962,13 @@
         <v>1171</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -4974,13 +4977,13 @@
         <v>1171</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5019,7 @@
         <v>15</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -5031,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,7 +5070,7 @@
         <v>15</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -5082,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5121,7 @@
         <v>15</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -5133,7 +5136,7 @@
         <v>15</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5166,13 @@
         <v>724</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -5178,13 +5181,13 @@
         <v>725</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,7 +5223,7 @@
         <v>15</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -5235,7 +5238,7 @@
         <v>15</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5253,13 @@
         <v>160</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -5271,7 +5274,7 @@
         <v>15</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -5280,13 +5283,13 @@
         <v>160</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5319,13 @@
         <v>633</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
@@ -5331,13 +5334,13 @@
         <v>633</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5370,13 @@
         <v>159</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5382,13 +5385,13 @@
         <v>159</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5427,7 @@
         <v>15</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -5439,7 +5442,7 @@
         <v>15</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5478,7 @@
         <v>15</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -5490,7 +5493,7 @@
         <v>15</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5561,13 @@
         <v>318</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -5579,7 +5582,7 @@
         <v>15</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M89" s="7">
         <v>2</v>
@@ -5588,13 +5591,13 @@
         <v>318</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5612,13 @@
         <v>3157</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="G90" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H90" s="7">
         <v>4</v>
@@ -5624,13 +5627,13 @@
         <v>635</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M90" s="7">
         <v>7</v>
@@ -5639,13 +5642,13 @@
         <v>3792</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5663,13 @@
         <v>159</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -5675,13 +5678,13 @@
         <v>605</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M91" s="7">
         <v>2</v>
@@ -5690,13 +5693,13 @@
         <v>764</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5714,13 @@
         <v>1938</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H92" s="7">
         <v>7</v>
@@ -5726,13 +5729,13 @@
         <v>2429</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M92" s="7">
         <v>10</v>
@@ -5741,13 +5744,13 @@
         <v>4368</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5765,13 @@
         <v>1724</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H93" s="7">
         <v>4</v>
@@ -5777,13 +5780,13 @@
         <v>3606</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M93" s="7">
         <v>7</v>
@@ -5792,13 +5795,13 @@
         <v>5330</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5816,13 @@
         <v>1977</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -5828,13 +5831,13 @@
         <v>1171</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="M94" s="7">
         <v>4</v>
@@ -5864,7 +5867,7 @@
         <v>159</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>13</v>
@@ -5936,7 +5939,7 @@
         <v>15</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M96" s="7">
         <v>2</v>
@@ -5987,7 +5990,7 @@
         <v>15</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M97" s="7">
         <v>1</v>
@@ -6089,7 +6092,7 @@
         <v>15</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M99" s="7">
         <v>1</v>
@@ -6122,10 +6125,10 @@
         <v>225</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H100" s="7">
         <v>0</v>
@@ -6140,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M100" s="7">
         <v>3</v>
@@ -6149,13 +6152,13 @@
         <v>2447</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6179,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H101" s="7">
         <v>1</v>
@@ -6185,13 +6188,13 @@
         <v>633</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M101" s="7">
         <v>1</v>
@@ -6200,13 +6203,13 @@
         <v>633</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6230,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H102" s="7">
         <v>1</v>
@@ -6236,13 +6239,13 @@
         <v>159</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M102" s="7">
         <v>1</v>
@@ -6251,13 +6254,13 @@
         <v>159</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6287,13 +6290,13 @@
         <v>570</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M103" s="7">
         <v>1</v>
@@ -6302,13 +6305,13 @@
         <v>570</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,7 +6332,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H104" s="7">
         <v>1</v>
@@ -6338,13 +6341,13 @@
         <v>620</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M104" s="7">
         <v>1</v>
@@ -6353,13 +6356,13 @@
         <v>620</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,7 +6418,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP32A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DFDA01-DBB9-4221-B0E2-4C5A975D24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{320B2D4D-62AE-43BC-B3FD-8A49F1B61D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88B71535-58ED-4AEF-A568-039BBDD8BF40}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{EC0AEB8F-0C55-408E-BB26-4C5D1073B54E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="249">
-  <si>
-    <t>Menores según su lugar de nacimiento / solo 2023 en 2023 (Tasa respuesta: 2,45%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="244">
+  <si>
+    <t>Menores extranjeros/as según año que llegó a España en 2023 (Tasa respuesta: 2,45%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,70 +65,58 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -140,178 +128,175 @@
     <t>100%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>17,08%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -320,79 +305,82 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -401,385 +389,382 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1194,8 +1179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87651145-3E28-474A-A96F-DFA8BC0D219E}">
-  <dimension ref="A1:Q106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDAD3A3-2B2B-4C5A-B653-A7F25EADB5C8}">
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1314,41 +1299,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>166</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>166</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,41 +1350,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5866</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5866</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,41 +1401,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,41 +1452,47 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1559</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1559</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,43 +1501,49 @@
         <v>2018</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>164</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>724</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>888</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,41 +1554,47 @@
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
       <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,41 +1605,47 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,41 +1656,47 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,41 +1707,47 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,41 +1758,47 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,41 +1809,47 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
       <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,41 +1860,47 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
       <c r="J15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,41 +1911,47 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
       <c r="O16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,41 +1962,47 @@
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
       <c r="O17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,41 +2013,47 @@
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
       <c r="J18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
       <c r="O18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,41 +2064,47 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
       <c r="O19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,66 +2113,72 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>164</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8314</v>
+      </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>8478</v>
+      </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2100,28 +2187,28 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,19 +2217,19 @@
         <v>2021</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2838</v>
+        <v>485</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2151,28 +2238,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2838</v>
+        <v>485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2202,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2217,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,19 +2319,19 @@
         <v>2019</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>1145</v>
+        <v>1807</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2253,28 +2340,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>1145</v>
+        <v>1807</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,46 +2373,46 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>674</v>
+        <v>1129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>833</v>
+        <v>1129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2355,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2370,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,49 +2472,49 @@
         <v>2015</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,43 +2529,43 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,43 +2580,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,43 +2631,43 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2610,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2625,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,43 +2733,43 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2784,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2712,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2727,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2763,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2778,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,19 +2880,19 @@
         <v>2007</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2814,28 +2901,28 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,19 +2931,19 @@
         <v>2006</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2865,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,54 +2982,54 @@
         <v>3</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>4816</v>
+        <v>5029</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>159</v>
+        <v>3700</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M37" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N37" s="7">
-        <v>4975</v>
+        <v>8729</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B38" s="5">
         <v>2022</v>
@@ -2954,43 +3041,43 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,43 +3092,43 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H39" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="M39" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39" s="7">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,43 +3143,43 @@
         <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3188,49 @@
         <v>2019</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>1598</v>
+        <v>166</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1598</v>
+        <v>329</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3239,49 @@
         <v>2018</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>3431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>843</v>
+        <v>671</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M42" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>843</v>
+        <v>4103</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,43 +3296,43 @@
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3341,49 @@
         <v>2015</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,19 +3392,19 @@
         <v>2014</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3326,28 +3413,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" s="7">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,19 +3443,19 @@
         <v>2013</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3377,28 +3464,28 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,19 +3494,19 @@
         <v>2012</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3428,28 +3515,28 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,43 +3551,43 @@
         <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,49 +3596,49 @@
         <v>2010</v>
       </c>
       <c r="C49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>1894</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>586</v>
+        <v>1894</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3581,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3596,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3632,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -3647,13 +3734,13 @@
         <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,43 +3755,43 @@
         <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,43 +3806,43 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="7">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,73 +3851,73 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" s="7">
-        <v>3655</v>
+        <v>3594</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54" s="7">
-        <v>4497</v>
+        <v>6178</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M54" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N54" s="7">
-        <v>8152</v>
+        <v>9772</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B55" s="5">
         <v>2022</v>
       </c>
       <c r="C55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
@@ -3838,28 +3925,28 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M55" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,49 +3955,49 @@
         <v>2021</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,16 +4009,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>159</v>
+        <v>626</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -3940,28 +4027,28 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
       </c>
       <c r="N57" s="7">
-        <v>159</v>
+        <v>626</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,49 +4057,49 @@
         <v>2019</v>
       </c>
       <c r="C58" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>159</v>
+        <v>685</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>159</v>
+        <v>682</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M58" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58" s="7">
-        <v>319</v>
+        <v>1367</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,49 +4108,49 @@
         <v>2018</v>
       </c>
       <c r="C59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H59" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>2604</v>
+        <v>484</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="M59" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" s="7">
-        <v>3195</v>
+        <v>484</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,19 +4159,19 @@
         <v>2017</v>
       </c>
       <c r="C60" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" s="7">
-        <v>1977</v>
+        <v>1417</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4093,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M60" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>1977</v>
+        <v>1417</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4216,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4144,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4159,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4195,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4210,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -4246,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -4261,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,19 +4363,19 @@
         <v>2012</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4297,28 +4384,28 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,19 +4414,19 @@
         <v>2011</v>
       </c>
       <c r="C65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4348,28 +4435,28 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +4465,49 @@
         <v>2010</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="7">
-        <v>1701</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
       </c>
       <c r="N66" s="7">
-        <v>1701</v>
+        <v>163</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,19 +4516,19 @@
         <v>2009</v>
       </c>
       <c r="C67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4450,28 +4537,28 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,19 +4567,19 @@
         <v>2008</v>
       </c>
       <c r="C68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4501,28 +4588,28 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4552,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4567,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4603,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -4618,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,51 +4723,51 @@
         <v>9</v>
       </c>
       <c r="D71" s="7">
-        <v>5653</v>
+        <v>4490</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H71" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71" s="7">
-        <v>2763</v>
+        <v>1659</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M71" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N71" s="7">
-        <v>8416</v>
+        <v>6150</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B72" s="5">
         <v>2022</v>
@@ -4692,43 +4779,43 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="H72" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="M72" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,49 +4824,49 @@
         <v>2021</v>
       </c>
       <c r="C73" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" s="7">
-        <v>319</v>
+        <v>645</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="H73" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" s="7">
-        <v>159</v>
+        <v>6196</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="M73" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N73" s="7">
-        <v>478</v>
+        <v>6842</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,49 +4875,49 @@
         <v>2020</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
       </c>
       <c r="I74" s="7">
-        <v>605</v>
+        <v>164</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="M74" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" s="7">
-        <v>605</v>
+        <v>791</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,49 +4926,49 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D75" s="7">
-        <v>634</v>
+        <v>2655</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="H75" s="7">
         <v>3</v>
       </c>
       <c r="I75" s="7">
-        <v>672</v>
+        <v>2407</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="M75" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N75" s="7">
-        <v>1307</v>
+        <v>5062</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,49 +4977,49 @@
         <v>2018</v>
       </c>
       <c r="C76" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="7">
-        <v>459</v>
+        <v>4724</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="H76" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" s="7">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="M76" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N76" s="7">
-        <v>459</v>
+        <v>6603</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +5028,49 @@
         <v>2017</v>
       </c>
       <c r="C77" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="7">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="H77" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="7">
-        <v>1171</v>
+        <v>2195</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="M77" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N77" s="7">
-        <v>1171</v>
+        <v>3612</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +5079,49 @@
         <v>2015</v>
       </c>
       <c r="C78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="H78" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="M78" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,43 +5136,43 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="H79" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="M79" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" s="7">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,43 +5187,43 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="H80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="M80" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,49 +5232,49 @@
         <v>2012</v>
       </c>
       <c r="C81" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
       </c>
       <c r="I81" s="7">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M81" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81" s="7">
-        <v>725</v>
+        <v>1505</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,43 +5289,43 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="H82" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="M82" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="7">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,49 +5334,49 @@
         <v>2010</v>
       </c>
       <c r="C83" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H83" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83" s="7">
-        <v>0</v>
+        <v>2653</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="M83" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N83" s="7">
-        <v>160</v>
+        <v>2653</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,49 +5385,49 @@
         <v>2009</v>
       </c>
       <c r="C84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="H84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="M84" s="7">
         <v>1</v>
       </c>
       <c r="N84" s="7">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,49 +5436,49 @@
         <v>2008</v>
       </c>
       <c r="C85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="H85" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
       </c>
       <c r="N85" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,19 +5487,19 @@
         <v>2007</v>
       </c>
       <c r="C86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -5421,28 +5508,28 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="M86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,19 +5538,19 @@
         <v>2006</v>
       </c>
       <c r="C87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
@@ -5472,28 +5559,28 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="M87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,931 +5589,61 @@
         <v>3</v>
       </c>
       <c r="C88" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D88" s="7">
-        <v>1572</v>
+        <v>13277</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H88" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I88" s="7">
-        <v>4124</v>
+        <v>19852</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M88" s="7">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N88" s="7">
-        <v>5696</v>
+        <v>33130</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C89" s="7">
-        <v>2</v>
-      </c>
-      <c r="D89" s="7">
-        <v>318</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M89" s="7">
-        <v>2</v>
-      </c>
-      <c r="N89" s="7">
-        <v>318</v>
-      </c>
-      <c r="O89" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C90" s="7">
-        <v>3</v>
-      </c>
-      <c r="D90" s="7">
-        <v>3157</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H90" s="7">
-        <v>4</v>
-      </c>
-      <c r="I90" s="7">
-        <v>635</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M90" s="7">
-        <v>7</v>
-      </c>
-      <c r="N90" s="7">
-        <v>3792</v>
-      </c>
-      <c r="O90" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C91" s="7">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7">
-        <v>159</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H91" s="7">
-        <v>1</v>
-      </c>
-      <c r="I91" s="7">
-        <v>605</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M91" s="7">
-        <v>2</v>
-      </c>
-      <c r="N91" s="7">
-        <v>764</v>
-      </c>
-      <c r="O91" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q91" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C92" s="7">
-        <v>3</v>
-      </c>
-      <c r="D92" s="7">
-        <v>1938</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H92" s="7">
-        <v>7</v>
-      </c>
-      <c r="I92" s="7">
-        <v>2429</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M92" s="7">
-        <v>10</v>
-      </c>
-      <c r="N92" s="7">
-        <v>4368</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="7">
-        <v>3</v>
-      </c>
-      <c r="D93" s="7">
-        <v>1724</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H93" s="7">
-        <v>4</v>
-      </c>
-      <c r="I93" s="7">
-        <v>3606</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M93" s="7">
-        <v>7</v>
-      </c>
-      <c r="N93" s="7">
-        <v>5330</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P93" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q93" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C94" s="7">
-        <v>3</v>
-      </c>
-      <c r="D94" s="7">
-        <v>1977</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H94" s="7">
-        <v>1</v>
-      </c>
-      <c r="I94" s="7">
-        <v>1171</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M94" s="7">
-        <v>4</v>
-      </c>
-      <c r="N94" s="7">
-        <v>3148</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P94" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q94" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="5">
-        <v>2015</v>
-      </c>
-      <c r="C95" s="7">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7">
-        <v>159</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H95" s="7">
-        <v>1</v>
-      </c>
-      <c r="I95" s="7">
-        <v>391</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M95" s="7">
-        <v>2</v>
-      </c>
-      <c r="N95" s="7">
-        <v>550</v>
-      </c>
-      <c r="O95" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P95" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q95" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="5">
-        <v>2014</v>
-      </c>
-      <c r="C96" s="7">
-        <v>2</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1100</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M96" s="7">
-        <v>2</v>
-      </c>
-      <c r="N96" s="7">
-        <v>1100</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="5">
-        <v>2013</v>
-      </c>
-      <c r="C97" s="7">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1175</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7">
-        <v>0</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M97" s="7">
-        <v>1</v>
-      </c>
-      <c r="N97" s="7">
-        <v>1175</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q97" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C98" s="7">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7">
-        <v>635</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H98" s="7">
-        <v>1</v>
-      </c>
-      <c r="I98" s="7">
-        <v>725</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M98" s="7">
-        <v>2</v>
-      </c>
-      <c r="N98" s="7">
-        <v>1360</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q98" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="5">
-        <v>2011</v>
-      </c>
-      <c r="C99" s="7">
-        <v>1</v>
-      </c>
-      <c r="D99" s="7">
-        <v>906</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M99" s="7">
-        <v>1</v>
-      </c>
-      <c r="N99" s="7">
-        <v>906</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="5">
-        <v>2010</v>
-      </c>
-      <c r="C100" s="7">
-        <v>3</v>
-      </c>
-      <c r="D100" s="7">
-        <v>2447</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0</v>
-      </c>
-      <c r="I100" s="7">
-        <v>0</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M100" s="7">
-        <v>3</v>
-      </c>
-      <c r="N100" s="7">
-        <v>2447</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="5">
-        <v>2009</v>
-      </c>
-      <c r="C101" s="7">
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H101" s="7">
-        <v>1</v>
-      </c>
-      <c r="I101" s="7">
-        <v>633</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M101" s="7">
-        <v>1</v>
-      </c>
-      <c r="N101" s="7">
-        <v>633</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q101" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="5">
-        <v>2008</v>
-      </c>
-      <c r="C102" s="7">
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <v>0</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" s="7">
-        <v>1</v>
-      </c>
-      <c r="I102" s="7">
-        <v>159</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M102" s="7">
-        <v>1</v>
-      </c>
-      <c r="N102" s="7">
-        <v>159</v>
-      </c>
-      <c r="O102" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q102" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5">
-        <v>2007</v>
-      </c>
-      <c r="C103" s="7">
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <v>0</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H103" s="7">
-        <v>1</v>
-      </c>
-      <c r="I103" s="7">
-        <v>570</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M103" s="7">
-        <v>1</v>
-      </c>
-      <c r="N103" s="7">
-        <v>570</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P103" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q103" s="7" t="s">
+      <c r="A89" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="5">
-        <v>2006</v>
-      </c>
-      <c r="C104" s="7">
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <v>0</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H104" s="7">
-        <v>1</v>
-      </c>
-      <c r="I104" s="7">
-        <v>620</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M104" s="7">
-        <v>1</v>
-      </c>
-      <c r="N104" s="7">
-        <v>620</v>
-      </c>
-      <c r="O104" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P104" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7">
-        <v>24</v>
-      </c>
-      <c r="D105" s="7">
-        <v>15696</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" s="7">
-        <v>23</v>
-      </c>
-      <c r="I105" s="7">
-        <v>11543</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M105" s="7">
-        <v>47</v>
-      </c>
-      <c r="N105" s="7">
-        <v>27239</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>248</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A38:A54"/>
     <mergeCell ref="A55:A71"/>
     <mergeCell ref="A72:A88"/>
-    <mergeCell ref="A89:A105"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
